--- a/List of Vendors.xlsx
+++ b/List of Vendors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="697" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="697" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor Raw Data" sheetId="5" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Market_Vendor!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vendor Raw Data'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vendor Raw Data'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="410">
   <si>
     <t>Name</t>
   </si>
@@ -766,9 +766,6 @@
     <t>EC3A 8EP</t>
   </si>
   <si>
-    <t>@Allihopa_LDN</t>
-  </si>
-  <si>
     <t>Crabbie Shack</t>
   </si>
   <si>
@@ -818,13 +815,448 @@
   </si>
   <si>
     <t>8am-4pm</t>
+  </si>
+  <si>
+    <t>https://twitter.com/allihopa_ldn</t>
+  </si>
+  <si>
+    <t>#Fish #SmokedFish</t>
+  </si>
+  <si>
+    <t>http://www.allihopaldn.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/allihopa_ldn/</t>
+  </si>
+  <si>
+    <t>http://baolondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/BAO_LONDON/</t>
+  </si>
+  <si>
+    <t>Saturday 12-3</t>
+  </si>
+  <si>
+    <t>https://twitter.com/bao_london</t>
+  </si>
+  <si>
+    <t>#Asian #Bun #SteamedBun #tiwanese</t>
+  </si>
+  <si>
+    <t>weds- Friday 11.30-2</t>
+  </si>
+  <si>
+    <t>wed- Friday 11.30-2</t>
+  </si>
+  <si>
+    <t>http://billorbeak.co.uk/</t>
+  </si>
+  <si>
+    <t>#sandwiches #burgers</t>
+  </si>
+  <si>
+    <t>Friday-Sat 5pm-12am</t>
+  </si>
+  <si>
+    <t>weds</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516138.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516138.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516138.jpg[/img]</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>HTML:</t>
+  </si>
+  <si>
+    <t>BBCode:</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516153.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516153.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516153.jpg[/img]</t>
+  </si>
+  <si>
+    <t>Bubblewrap waffle</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516154.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516154.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516154.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516156.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516156.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516156.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516165.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516165.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516165.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516166.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516166.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516166.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516167.png</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516167.png" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516167.png[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516168.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516168.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516168.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516169.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516169.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516169.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516170.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516170.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516170.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516171.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516171.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516171.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516172.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516172.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516172.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516173.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516173.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516173.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516174.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516174.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516174.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516175.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516175.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516175.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516176.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516176.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516176.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516177.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516177.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516177.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516178.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516178.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516178.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516180.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516180.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516180.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516181.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516181.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516181.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516182.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516182.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516182.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516183.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516183.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516183.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516184.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516184.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516184.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516185.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516185.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516185.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516187.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516187.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516187.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516190.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516190.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516190.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516191.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516191.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516191.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516192.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516192.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516192.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516193.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516193.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516193.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516194.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516194.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516194.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516195.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516195.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516195.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516196.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516196.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516196.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516197.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516197.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516197.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516198.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516198.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516198.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516199.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516199.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516199.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516200.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516200.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516200.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516201.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516201.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516201.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516202.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516202.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516202.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516203.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516203.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516203.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516205.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516205.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516205.jpg[/img]</t>
+  </si>
+  <si>
+    <t>http://www.makeathumbnail.com/thumbnails/image516206.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img src="http://www.makeathumbnail.com/thumbnails/image516206.jpg" alt="Thumbnail provided by MakeAThumbnail.com" /&gt;</t>
+  </si>
+  <si>
+    <t>[img]http://www.makeathumbnail.com/thumbnails/image516206.jpg[/img]</t>
+  </si>
+  <si>
+    <t>SW1P 2JT</t>
+  </si>
+  <si>
+    <t>12-10pm</t>
+  </si>
+  <si>
+    <t>WC2H 8LG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,8 +1317,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +1343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -919,14 +1363,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -944,14 +1385,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1254,943 +1708,1192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="16" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="C14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
+      <c r="C15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="13"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="13"/>
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" t="s">
+        <v>324</v>
+      </c>
+      <c r="E43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>371</v>
+      </c>
+      <c r="D46" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>329</v>
+      </c>
+      <c r="D57" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D59" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>335</v>
+      </c>
+      <c r="D61" t="s">
+        <v>336</v>
+      </c>
+      <c r="E61" t="s">
+        <v>337</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" t="s">
+        <v>346</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" t="s">
+        <v>333</v>
+      </c>
+      <c r="E64" t="s">
+        <v>334</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" t="s">
+        <v>348</v>
+      </c>
+      <c r="E66" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E67" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" t="s">
+        <v>366</v>
+      </c>
+      <c r="E68" t="s">
+        <v>367</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>362</v>
+      </c>
+      <c r="D69" t="s">
+        <v>363</v>
+      </c>
+      <c r="E69" t="s">
+        <v>364</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" t="s">
+        <v>360</v>
+      </c>
+      <c r="E70" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
+        <v>401</v>
+      </c>
+      <c r="D71" t="s">
+        <v>402</v>
+      </c>
+      <c r="E71" t="s">
+        <v>403</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
+        <v>395</v>
+      </c>
+      <c r="D72" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>404</v>
+      </c>
+      <c r="D74" t="s">
+        <v>405</v>
+      </c>
+      <c r="E74" t="s">
+        <v>406</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" t="s">
+        <v>390</v>
+      </c>
+      <c r="E76" t="s">
+        <v>391</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" t="s">
+        <v>375</v>
+      </c>
+      <c r="E77" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>353</v>
+      </c>
+      <c r="D83" t="s">
+        <v>354</v>
+      </c>
+      <c r="E83" t="s">
+        <v>355</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>341</v>
+      </c>
+      <c r="D85" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" t="s">
+        <v>343</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
+      <c r="C86" t="s">
+        <v>392</v>
+      </c>
+      <c r="D86" t="s">
+        <v>393</v>
+      </c>
+      <c r="E86" t="s">
+        <v>394</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18" t="s">
+      <c r="C87" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" t="s">
+        <v>351</v>
+      </c>
+      <c r="E87" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" t="s">
+        <v>399</v>
+      </c>
+      <c r="E89" t="s">
+        <v>400</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="9"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="9"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="9"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
-  <mergeCells count="28">
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A87"/>
+  <autoFilter ref="A1:H1"/>
+  <mergeCells count="25">
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A87:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2198,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,55 +2913,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="10" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2266,7 +2969,7 @@
       <c r="A3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C3">
@@ -2296,7 +2999,7 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2334,7 +3037,7 @@
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2348,7 +3051,7 @@
       <c r="C5">
         <v>51.536799999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>-6.1499999999999999E-2</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2372,7 +3075,7 @@
       <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2418,7 +3121,7 @@
       <c r="A7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C7">
@@ -2448,7 +3151,7 @@
       <c r="K7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2524,7 +3227,7 @@
       <c r="K9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -2562,7 +3265,7 @@
       <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2600,7 +3303,7 @@
       <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2714,7 +3417,7 @@
         <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15">
         <v>51.500999999999998</v>
@@ -2885,11 +3588,11 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20">
         <v>51.520200000000003</v>
@@ -2899,11 +3602,11 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C21">
         <v>51.463200000000001</v>
@@ -2934,8 +3637,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>255</v>
+      <c r="A22" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -2969,16 +3672,25 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="B23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23">
+        <v>51.5154</v>
+      </c>
+      <c r="D23">
+        <v>-0.12859999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C24">
         <v>51.506399999999999</v>
@@ -2988,11 +3700,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25">
         <v>51.514800000000001</v>
@@ -3001,19 +3713,19 @@
         <v>-0.12379999999999999</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
         <v>21</v>
@@ -3023,16 +3735,16 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C27">
         <v>51.512</v>
@@ -3047,32 +3759,62 @@
         <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>165</v>
       </c>
+      <c r="B28" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28">
+        <v>51.497300000000003</v>
+      </c>
+      <c r="D28">
+        <v>-0.1336</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C29">
         <v>51.525700000000001</v>
@@ -3080,12 +3822,33 @@
       <c r="D29">
         <v>-8.7599999999999997E-2</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>259</v>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>408</v>
+      </c>
+      <c r="G29" t="s">
+        <v>408</v>
+      </c>
+      <c r="H29" t="s">
+        <v>408</v>
+      </c>
+      <c r="I29" t="s">
+        <v>408</v>
+      </c>
+      <c r="J29" t="s">
+        <v>408</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
@@ -3112,7 +3875,7 @@
       <c r="I30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
@@ -3485,15 +4248,16 @@
     <mergeCell ref="E1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,1207 +4272,1261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="13" t="s">
+      <c r="C43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
+      <c r="D44" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="13" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="13" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="13" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B81" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" s="9" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G84" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="1">
-        <v>42440</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G86">
+    <sortState ref="A2:G85">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G69" r:id="rId2"/>
-    <hyperlink ref="G85" r:id="rId3"/>
+    <hyperlink ref="G68" r:id="rId2"/>
+    <hyperlink ref="G84" r:id="rId3"/>
     <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="G19" r:id="rId5"/>
+    <hyperlink ref="G20" r:id="rId5"/>
     <hyperlink ref="E4" r:id="rId6"/>
     <hyperlink ref="E13" r:id="rId7"/>
     <hyperlink ref="E46" r:id="rId8"/>
@@ -4716,9 +5534,8 @@
     <hyperlink ref="E56" r:id="rId10"/>
     <hyperlink ref="E9" r:id="rId11"/>
     <hyperlink ref="E2" r:id="rId12"/>
-    <hyperlink ref="E24" r:id="rId13" display="https://twitter.com/Allihopa_LDN"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
